--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahuel De la cruz\Desktop\Nahuel\2 - UiPath Cursos Online\AGRANDDA - INTERNSHIP\CirculateCertification_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C282C759-FC74-4043-BD81-4A6B0D28AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,15 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
+  <si>
+    <t>CirculateCertification_URL</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/circular</t>
+  </si>
+  <si>
+    <t>URL to access to the main page</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -183,6 +192,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,11 +509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -569,7 +579,17 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1574,7 +1594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -2682,11 +2702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahuel De la cruz\Desktop\Nahuel\2 - UiPath Cursos Online\AGRANDDA - INTERNSHIP\CirculateCertification_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C282C759-FC74-4043-BD81-4A6B0D28AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501619C0-403E-4743-BEE5-5FECFB405575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t>URL to access to the main page</t>
+  </si>
+  <si>
+    <t>ForeignPassportOption</t>
+  </si>
+  <si>
+    <t>pasaporte extranjero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The key of the option for users who have foreign passport </t>
+  </si>
+  <si>
+    <t>TestExcelPath</t>
+  </si>
+  <si>
+    <t>Tests\Tests - Cases.xlsx</t>
+  </si>
+  <si>
+    <t>PeopleToAttendSheet</t>
+  </si>
+  <si>
+    <t>PeopleToAttend Information</t>
   </si>
 </sst>
 </file>
@@ -509,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -591,7 +612,17 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1592,7 +1623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1716,8 +1749,22 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahuel De la cruz\Desktop\Nahuel\2 - UiPath Cursos Online\AGRANDDA - INTERNSHIP\CirculateCertification_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501619C0-403E-4743-BEE5-5FECFB405575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F18D40-4CA5-42ED-B216-9C9B65AFEB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -85,13 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -151,7 +144,127 @@
     <t>PeopleToAttendSheet</t>
   </si>
   <si>
-    <t>PeopleToAttend Information</t>
+    <t>UserSettingsRange</t>
+  </si>
+  <si>
+    <t>A1:E2</t>
+  </si>
+  <si>
+    <t>UserSettingsSheet</t>
+  </si>
+  <si>
+    <t>User Settings</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>PersonalInformationSheet</t>
+  </si>
+  <si>
+    <t>PersonalInformationRange</t>
+  </si>
+  <si>
+    <t>DestinationInformationSheet</t>
+  </si>
+  <si>
+    <t>Destination Information</t>
+  </si>
+  <si>
+    <t>DestinationInformationRange</t>
+  </si>
+  <si>
+    <t>EmergencyDataRange</t>
+  </si>
+  <si>
+    <t>A6:C7</t>
+  </si>
+  <si>
+    <t>LaborDataRange</t>
+  </si>
+  <si>
+    <t>People-To-Attend Info</t>
+  </si>
+  <si>
+    <t>PeopleToAttendSettingsRange</t>
+  </si>
+  <si>
+    <t>A1:B2</t>
+  </si>
+  <si>
+    <t>PeopleToAttendInfoRange</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>DBSettings_DNITypeRange</t>
+  </si>
+  <si>
+    <t>A7:B9</t>
+  </si>
+  <si>
+    <t>DBSettings_AvailableOptionsRange</t>
+  </si>
+  <si>
+    <t>A11:B14</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>DBSettingsSheet</t>
+  </si>
+  <si>
+    <t>DB_Settings</t>
+  </si>
+  <si>
+    <t>CertificateType_ColumnToCompare</t>
+  </si>
+  <si>
+    <t>Tipo de certificado</t>
+  </si>
+  <si>
+    <t>DBSettings_ProvincesRange</t>
+  </si>
+  <si>
+    <t>DBSettings_CertificateReasonsRange</t>
+  </si>
+  <si>
+    <t>DNIType_ColumnToCompare</t>
+  </si>
+  <si>
+    <t>¿Tiene DNI?</t>
+  </si>
+  <si>
+    <t>Province_ColumnToCompare</t>
+  </si>
+  <si>
+    <t>Provincia Destino</t>
+  </si>
+  <si>
+    <t>CertificateReason_ColumnToCompare</t>
+  </si>
+  <si>
+    <t>Motivo de certificado</t>
+  </si>
+  <si>
+    <t>A10:E11</t>
+  </si>
+  <si>
+    <t>A1:D2</t>
+  </si>
+  <si>
+    <t>CirculateCertificationRequests</t>
+  </si>
+  <si>
+    <t>Circulate Certification Argentina - Performer</t>
+  </si>
+  <si>
+    <t>A1:S2</t>
+  </si>
+  <si>
+    <t>A1:B3</t>
   </si>
 </sst>
 </file>
@@ -169,6 +282,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -203,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -214,6 +328,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -578,13 +693,13 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -593,60 +708,199 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1611,7 +1865,6 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1677,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1701,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1723,7 +1976,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1734,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1745,26 +1998,19 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2767,7 +3013,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
